--- a/tests/excel/shuihudata_untyped.xlsx
+++ b/tests/excel/shuihudata_untyped.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\f2t\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\f2t\tests\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{256CC0D9-D132-47CE-9B46-07368AC62AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339BECBA-8B65-44D4-8AB7-6884DB38FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,15 +23,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="查询 - shuihudata" description="与工作簿中“shuihudata”查询的连接。" type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="查询 - shuihudata" description="与工作簿中“shuihudata”查询的连接。" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=shuihudata;Extended Properties=&quot;&quot;" command="SELECT * FROM [shuihudata]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="550">
   <si>
     <t>座次</t>
   </si>
@@ -1027,12 +1027,666 @@
   </si>
   <si>
     <t>段景住</t>
+  </si>
+  <si>
+    <t>年月日</t>
+  </si>
+  <si>
+    <t>时分秒</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>1982-03-15</t>
+  </si>
+  <si>
+    <t>1995-11-15</t>
+  </si>
+  <si>
+    <t>1975-08-22</t>
+  </si>
+  <si>
+    <t>1997-12-12</t>
+  </si>
+  <si>
+    <t>1970-09-10</t>
+  </si>
+  <si>
+    <t>2004-04-05</t>
+  </si>
+  <si>
+    <t>2007-02-09</t>
+  </si>
+  <si>
+    <t>2011-06-28</t>
+  </si>
+  <si>
+    <t>1972-03-22</t>
+  </si>
+  <si>
+    <t>2022-07-09</t>
+  </si>
+  <si>
+    <t>1976-03-03</t>
+  </si>
+  <si>
+    <t>1976-02-04</t>
+  </si>
+  <si>
+    <t>2010-04-28</t>
+  </si>
+  <si>
+    <t>1987-06-03</t>
+  </si>
+  <si>
+    <t>1980-10-13</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2001-02-27</t>
+  </si>
+  <si>
+    <t>1975-06-28</t>
+  </si>
+  <si>
+    <t>1999-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>1973-08-06</t>
+  </si>
+  <si>
+    <t>1988-09-09</t>
+  </si>
+  <si>
+    <t>1995-07-20</t>
+  </si>
+  <si>
+    <t>1993-11-20</t>
+  </si>
+  <si>
+    <t>1986-05-04</t>
+  </si>
+  <si>
+    <t>2009-07-02</t>
+  </si>
+  <si>
+    <t>1974-03-09</t>
+  </si>
+  <si>
+    <t>1986-12-12</t>
+  </si>
+  <si>
+    <t>1993-08-30</t>
+  </si>
+  <si>
+    <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>1977-11-25</t>
+  </si>
+  <si>
+    <t>1989-09-19</t>
+  </si>
+  <si>
+    <t>1981-10-21</t>
+  </si>
+  <si>
+    <t>1970-06-10</t>
+  </si>
+  <si>
+    <t>2018-04-05</t>
+  </si>
+  <si>
+    <t>1979-04-16</t>
+  </si>
+  <si>
+    <t>1995-02-07</t>
+  </si>
+  <si>
+    <t>1971-10-13</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>1998-12-23</t>
+  </si>
+  <si>
+    <t>1990-01-11</t>
+  </si>
+  <si>
+    <t>1978-12-06</t>
+  </si>
+  <si>
+    <t>2013-12-13</t>
+  </si>
+  <si>
+    <t>1973-04-24</t>
+  </si>
+  <si>
+    <t>2009-11-25</t>
+  </si>
+  <si>
+    <t>1978-05-14</t>
+  </si>
+  <si>
+    <t>1993-05-27</t>
+  </si>
+  <si>
+    <t>1995-01-27</t>
+  </si>
+  <si>
+    <t>2001-08-23</t>
+  </si>
+  <si>
+    <t>2009-07-18</t>
+  </si>
+  <si>
+    <t>1999-02-16</t>
+  </si>
+  <si>
+    <t>2011-08-04</t>
+  </si>
+  <si>
+    <t>1976-01-09</t>
+  </si>
+  <si>
+    <t>2009-02-18</t>
+  </si>
+  <si>
+    <t>1999-09-07</t>
+  </si>
+  <si>
+    <t>1981-03-03</t>
+  </si>
+  <si>
+    <t>1985-08-02</t>
+  </si>
+  <si>
+    <t>2002-03-04</t>
+  </si>
+  <si>
+    <t>1984-12-02</t>
+  </si>
+  <si>
+    <t>1993-06-07</t>
+  </si>
+  <si>
+    <t>2009-09-30</t>
+  </si>
+  <si>
+    <t>1974-06-21</t>
+  </si>
+  <si>
+    <t>1971-03-04</t>
+  </si>
+  <si>
+    <t>1979-04-02</t>
+  </si>
+  <si>
+    <t>2018-11-25</t>
+  </si>
+  <si>
+    <t>1971-07-08</t>
+  </si>
+  <si>
+    <t>1999-07-26</t>
+  </si>
+  <si>
+    <t>1975-10-11</t>
+  </si>
+  <si>
+    <t>1981-07-14</t>
+  </si>
+  <si>
+    <t>1982-02-01</t>
+  </si>
+  <si>
+    <t>1987-07-25</t>
+  </si>
+  <si>
+    <t>1991-12-19</t>
+  </si>
+  <si>
+    <t>1995-04-08</t>
+  </si>
+  <si>
+    <t>2017-04-28</t>
+  </si>
+  <si>
+    <t>1997-02-15</t>
+  </si>
+  <si>
+    <t>1994-01-15</t>
+  </si>
+  <si>
+    <t>1989-04-02</t>
+  </si>
+  <si>
+    <t>1985-05-16</t>
+  </si>
+  <si>
+    <t>2001-07-06</t>
+  </si>
+  <si>
+    <t>2000-04-28</t>
+  </si>
+  <si>
+    <t>1990-01-25</t>
+  </si>
+  <si>
+    <t>1981-04-10</t>
+  </si>
+  <si>
+    <t>2019-05-17</t>
+  </si>
+  <si>
+    <t>1973-06-26</t>
+  </si>
+  <si>
+    <t>1972-09-23</t>
+  </si>
+  <si>
+    <t>1977-10-06</t>
+  </si>
+  <si>
+    <t>1994-11-05</t>
+  </si>
+  <si>
+    <t>1971-05-30</t>
+  </si>
+  <si>
+    <t>1972-05-05</t>
+  </si>
+  <si>
+    <t>2008-07-02</t>
+  </si>
+  <si>
+    <t>1995-11-28</t>
+  </si>
+  <si>
+    <t>2007-05-04</t>
+  </si>
+  <si>
+    <t>2004-09-19</t>
+  </si>
+  <si>
+    <t>2000-08-11</t>
+  </si>
+  <si>
+    <t>2007-01-25</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>1996-02-10</t>
+  </si>
+  <si>
+    <t>2009-06-09</t>
+  </si>
+  <si>
+    <t>2001-11-17</t>
+  </si>
+  <si>
+    <t>2001-07-11</t>
+  </si>
+  <si>
+    <t>2003-06-20</t>
+  </si>
+  <si>
+    <t>1988-08-30</t>
+  </si>
+  <si>
+    <t>2008-08-18</t>
+  </si>
+  <si>
+    <t>1987-07-15</t>
+  </si>
+  <si>
+    <t>1992-04-13</t>
+  </si>
+  <si>
+    <t>1989-12-01</t>
+  </si>
+  <si>
+    <t>2006-12-10</t>
+  </si>
+  <si>
+    <t>23:07:28</t>
+  </si>
+  <si>
+    <t>13:03:19</t>
+  </si>
+  <si>
+    <t>7:33:24</t>
+  </si>
+  <si>
+    <t>11:46:11</t>
+  </si>
+  <si>
+    <t>23:54:43</t>
+  </si>
+  <si>
+    <t>19:22:31</t>
+  </si>
+  <si>
+    <t>11:09:18</t>
+  </si>
+  <si>
+    <t>21:34:03</t>
+  </si>
+  <si>
+    <t>19:40:05</t>
+  </si>
+  <si>
+    <t>18:27:14</t>
+  </si>
+  <si>
+    <t>5:12:54</t>
+  </si>
+  <si>
+    <t>20:35:21</t>
+  </si>
+  <si>
+    <t>13:39:14</t>
+  </si>
+  <si>
+    <t>9:25:48</t>
+  </si>
+  <si>
+    <t>1:25:13</t>
+  </si>
+  <si>
+    <t>4:45:06</t>
+  </si>
+  <si>
+    <t>2:10:31</t>
+  </si>
+  <si>
+    <t>3:29:55</t>
+  </si>
+  <si>
+    <t>23:21:50</t>
+  </si>
+  <si>
+    <t>19:03:20</t>
+  </si>
+  <si>
+    <t>13:48:02</t>
+  </si>
+  <si>
+    <t>13:14:50</t>
+  </si>
+  <si>
+    <t>17:09:08</t>
+  </si>
+  <si>
+    <t>2:07:01</t>
+  </si>
+  <si>
+    <t>21:24:09</t>
+  </si>
+  <si>
+    <t>21:44:37</t>
+  </si>
+  <si>
+    <t>1:42:28</t>
+  </si>
+  <si>
+    <t>10:40:48</t>
+  </si>
+  <si>
+    <t>13:52:33</t>
+  </si>
+  <si>
+    <t>13:19:28</t>
+  </si>
+  <si>
+    <t>7:17:13</t>
+  </si>
+  <si>
+    <t>10:20:16</t>
+  </si>
+  <si>
+    <t>4:05:08</t>
+  </si>
+  <si>
+    <t>5:53:50</t>
+  </si>
+  <si>
+    <t>17:19:10</t>
+  </si>
+  <si>
+    <t>14:18:23</t>
+  </si>
+  <si>
+    <t>7:55:14</t>
+  </si>
+  <si>
+    <t>1:46:19</t>
+  </si>
+  <si>
+    <t>5:58:24</t>
+  </si>
+  <si>
+    <t>5:02:35</t>
+  </si>
+  <si>
+    <t>15:06:24</t>
+  </si>
+  <si>
+    <t>3:02:11</t>
+  </si>
+  <si>
+    <t>2:59:47</t>
+  </si>
+  <si>
+    <t>9:11:00</t>
+  </si>
+  <si>
+    <t>12:22:49</t>
+  </si>
+  <si>
+    <t>23:29:16</t>
+  </si>
+  <si>
+    <t>6:31:40</t>
+  </si>
+  <si>
+    <t>4:38:30</t>
+  </si>
+  <si>
+    <t>10:09:06</t>
+  </si>
+  <si>
+    <t>18:32:06</t>
+  </si>
+  <si>
+    <t>4:41:09</t>
+  </si>
+  <si>
+    <t>7:18:05</t>
+  </si>
+  <si>
+    <t>14:11:19</t>
+  </si>
+  <si>
+    <t>14:09:52</t>
+  </si>
+  <si>
+    <t>9:58:23</t>
+  </si>
+  <si>
+    <t>12:34:59</t>
+  </si>
+  <si>
+    <t>15:31:26</t>
+  </si>
+  <si>
+    <t>9:14:24</t>
+  </si>
+  <si>
+    <t>4:58:35</t>
+  </si>
+  <si>
+    <t>7:36:22</t>
+  </si>
+  <si>
+    <t>21:27:03</t>
+  </si>
+  <si>
+    <t>20:38:20</t>
+  </si>
+  <si>
+    <t>18:56:52</t>
+  </si>
+  <si>
+    <t>7:42:45</t>
+  </si>
+  <si>
+    <t>14:59:46</t>
+  </si>
+  <si>
+    <t>17:21:22</t>
+  </si>
+  <si>
+    <t>3:15:55</t>
+  </si>
+  <si>
+    <t>3:29:18</t>
+  </si>
+  <si>
+    <t>3:11:44</t>
+  </si>
+  <si>
+    <t>19:57:54</t>
+  </si>
+  <si>
+    <t>14:31:50</t>
+  </si>
+  <si>
+    <t>18:50:09</t>
+  </si>
+  <si>
+    <t>0:01:24</t>
+  </si>
+  <si>
+    <t>22:03:55</t>
+  </si>
+  <si>
+    <t>3:20:49</t>
+  </si>
+  <si>
+    <t>3:35:54</t>
+  </si>
+  <si>
+    <t>17:48:09</t>
+  </si>
+  <si>
+    <t>11:14:15</t>
+  </si>
+  <si>
+    <t>7:42:16</t>
+  </si>
+  <si>
+    <t>22:08:28</t>
+  </si>
+  <si>
+    <t>14:11:25</t>
+  </si>
+  <si>
+    <t>10:02:46</t>
+  </si>
+  <si>
+    <t>3:49:23</t>
+  </si>
+  <si>
+    <t>10:07:56</t>
+  </si>
+  <si>
+    <t>1:30:38</t>
+  </si>
+  <si>
+    <t>20:34:39</t>
+  </si>
+  <si>
+    <t>10:18:46</t>
+  </si>
+  <si>
+    <t>0:54:39</t>
+  </si>
+  <si>
+    <t>5:15:42</t>
+  </si>
+  <si>
+    <t>0:05:29</t>
+  </si>
+  <si>
+    <t>23:30:09</t>
+  </si>
+  <si>
+    <t>14:03:53</t>
+  </si>
+  <si>
+    <t>7:41:56</t>
+  </si>
+  <si>
+    <t>0:16:29</t>
+  </si>
+  <si>
+    <t>22:37:33</t>
+  </si>
+  <si>
+    <t>1:36:13</t>
+  </si>
+  <si>
+    <t>8:55:33</t>
+  </si>
+  <si>
+    <t>4:23:09</t>
+  </si>
+  <si>
+    <t>10:11:13</t>
+  </si>
+  <si>
+    <t>17:39:41</t>
+  </si>
+  <si>
+    <t>13:52:47</t>
+  </si>
+  <si>
+    <t>19:55:29</t>
+  </si>
+  <si>
+    <t>7:28:51</t>
+  </si>
+  <si>
+    <t>5:50:59</t>
+  </si>
+  <si>
+    <t>21:34:30</t>
+  </si>
+  <si>
+    <t>14:54:19</t>
+  </si>
+  <si>
+    <t>0:57:58</t>
+  </si>
+  <si>
+    <t>8:08:09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1619,7 +2273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,6 +2281,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1674,7 +2331,13 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
     </dxf>
@@ -1701,9 +2364,9 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="11" unboundColumnsRight="2">
+    <queryTableFields count="10">
       <queryTableField id="1" name="座次" tableColumnId="1"/>
       <queryTableField id="2" name="星宿" tableColumnId="2"/>
       <queryTableField id="3" name="诨名" tableColumnId="3"/>
@@ -1712,23 +2375,27 @@
       <queryTableField id="6" name="浮点" tableColumnId="6"/>
       <queryTableField id="7" name="整数" tableColumnId="7"/>
       <queryTableField id="8" name="日期" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="shuihudata" displayName="shuihudata" ref="A1:H109" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H109"/>
-  <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="座次" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="星宿" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" uniqueName="3" name="诨名" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" uniqueName="4" name="姓名" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" uniqueName="5" name="布尔" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="浮点" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="整数" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="日期" queryTableFieldId="8" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="shuihudata" displayName="shuihudata" ref="A1:J109" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J109" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="座次" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="星宿" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="诨名" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="姓名" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="布尔" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="浮点" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="整数" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="日期" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8C40E46D-8BE0-4D38-ADCF-4AC8EB2FF150}" uniqueName="9" name="年月日" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7DD97C50-7364-42E0-92A5-046D372F97D1}" uniqueName="10" name="时分秒" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,10 +2697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2043,9 +2712,11 @@
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2070,8 +2741,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2096,8 +2773,14 @@
       <c r="H2" s="1">
         <v>44157.768020833333</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2122,8 +2805,14 @@
       <c r="H3" s="1">
         <v>44157.439710648148</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2148,8 +2837,14 @@
       <c r="H4" s="1">
         <v>44157.49732638889</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2174,8 +2869,14 @@
       <c r="H5" s="1">
         <v>44157.320474537039</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2200,8 +2901,14 @@
       <c r="H6" s="1">
         <v>44157.434050925927</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2226,8 +2933,14 @@
       <c r="H7" s="1">
         <v>44157.805486111109</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2252,8 +2965,14 @@
       <c r="H8" s="1">
         <v>44157.63003472222</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2278,8 +2997,14 @@
       <c r="H9" s="1">
         <v>44157.743263888886</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2304,8 +3029,14 @@
       <c r="H10" s="1">
         <v>44157.88045138889</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2330,8 +3061,14 @@
       <c r="H11" s="1">
         <v>44157.683321759258</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2356,8 +3093,14 @@
       <c r="H12" s="1">
         <v>44156.967789351853</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2382,8 +3125,14 @@
       <c r="H13" s="1">
         <v>44157.883125</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2408,8 +3157,14 @@
       <c r="H14" s="1">
         <v>44157.401400462964</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2434,8 +3189,14 @@
       <c r="H15" s="1">
         <v>44157.660752314812</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2460,8 +3221,14 @@
       <c r="H16" s="1">
         <v>44157.177210648151</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2486,8 +3253,14 @@
       <c r="H17" s="1">
         <v>44157.255046296297</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2512,8 +3285,14 @@
       <c r="H18" s="1">
         <v>44157.026608796295</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2538,8 +3317,14 @@
       <c r="H19" s="1">
         <v>44157.396805555552</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2564,8 +3349,14 @@
       <c r="H20" s="1">
         <v>44157.434328703705</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2590,8 +3381,14 @@
       <c r="H21" s="1">
         <v>44157.153587962966</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2616,8 +3413,14 @@
       <c r="H22" s="1">
         <v>44157.18922453704</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2642,8 +3445,14 @@
       <c r="H23" s="1">
         <v>44157.636921296296</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2668,8 +3477,14 @@
       <c r="H24" s="1">
         <v>44157.609351851854</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2694,8 +3509,14 @@
       <c r="H25" s="1">
         <v>44157.562557870369</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2720,8 +3541,14 @@
       <c r="H26" s="1">
         <v>44157.554976851854</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2746,8 +3573,14 @@
       <c r="H27" s="1">
         <v>44157.263368055559</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2772,8 +3605,14 @@
       <c r="H28" s="1">
         <v>44157.863159722219</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2798,8 +3637,14 @@
       <c r="H29" s="1">
         <v>44157.642118055555</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2824,8 +3669,14 @@
       <c r="H30" s="1">
         <v>44157.385833333334</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2850,8 +3701,14 @@
       <c r="H31" s="1">
         <v>44157.572372685187</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2876,8 +3733,14 @@
       <c r="H32" s="1">
         <v>44157.536215277774</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2902,8 +3765,14 @@
       <c r="H33" s="1">
         <v>44157.895925925928</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2928,8 +3797,14 @@
       <c r="H34" s="1">
         <v>44157.364988425928</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2954,8 +3829,14 @@
       <c r="H35" s="1">
         <v>44157.894942129627</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2980,8 +3861,14 @@
       <c r="H36" s="1">
         <v>44157.470821759256</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3006,8 +3893,14 @@
       <c r="H37" s="1">
         <v>44157.42150462963</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3032,8 +3925,14 @@
       <c r="H38" s="1">
         <v>44157.7812962963</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3058,8 +3957,14 @@
       <c r="H39" s="1">
         <v>44157.536215277774</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3084,8 +3989,14 @@
       <c r="H40" s="1">
         <v>44157.529224537036</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3110,8 +4021,14 @@
       <c r="H41" s="1">
         <v>44157.221250000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3136,8 +4053,14 @@
       <c r="H42" s="1">
         <v>44157.57571759259</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3162,8 +4085,14 @@
       <c r="H43" s="1">
         <v>44157.293217592596</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3188,8 +4117,14 @@
       <c r="H44" s="1">
         <v>44157.230011574073</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3214,8 +4149,14 @@
       <c r="H45" s="1">
         <v>44157.796006944445</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3240,8 +4181,14 @@
       <c r="H46" s="1">
         <v>44157.617754629631</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3266,8 +4213,14 @@
       <c r="H47" s="1">
         <v>44157.536493055559</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3292,8 +4245,14 @@
       <c r="H48" s="1">
         <v>44157.840428240743</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3318,8 +4277,14 @@
       <c r="H49" s="1">
         <v>44157.872256944444</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3344,8 +4309,14 @@
       <c r="H50" s="1">
         <v>44157.345462962963</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3370,8 +4341,14 @@
       <c r="H51" s="1">
         <v>44156.962361111109</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3396,8 +4373,14 @@
       <c r="H52" s="1">
         <v>44157.895601851851</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3422,8 +4405,14 @@
       <c r="H53" s="1">
         <v>44156.985659722224</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3448,8 +4437,14 @@
       <c r="H54" s="1">
         <v>44157.31722222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3474,8 +4469,14 @@
       <c r="H55" s="1">
         <v>44157.230798611112</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3500,8 +4501,14 @@
       <c r="H56" s="1">
         <v>44157.237349537034</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3526,8 +4533,14 @@
       <c r="H57" s="1">
         <v>44157.24150462963</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3552,8 +4565,14 @@
       <c r="H58" s="1">
         <v>44157.636932870373</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3578,8 +4597,14 @@
       <c r="H59" s="1">
         <v>44157.440833333334</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3604,8 +4629,14 @@
       <c r="H60" s="1">
         <v>44157.609212962961</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3630,8 +4661,14 @@
       <c r="H61" s="1">
         <v>44156.942372685182</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3656,8 +4693,14 @@
       <c r="H62" s="1">
         <v>44156.987997685188</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3682,8 +4725,14 @@
       <c r="H63" s="1">
         <v>44157.302118055559</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3708,8 +4757,14 @@
       <c r="H64" s="1">
         <v>44157.905405092592</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3734,8 +4789,14 @@
       <c r="H65" s="1">
         <v>44157.905532407407</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3760,8 +4821,14 @@
       <c r="H66" s="1">
         <v>44157.095451388886</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3786,8 +4853,14 @@
       <c r="H67" s="1">
         <v>44157.705405092594</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3812,8 +4885,14 @@
       <c r="H68" s="1">
         <v>44157.889525462961</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3838,8 +4917,14 @@
       <c r="H69" s="1">
         <v>44156.973703703705</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3864,8 +4949,14 @@
       <c r="H70" s="1">
         <v>44157.743634259263</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3890,8 +4981,14 @@
       <c r="H71" s="1">
         <v>44157.758900462963</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3916,8 +5013,14 @@
       <c r="H72" s="1">
         <v>44157.84</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3942,8 +5045,14 @@
       <c r="H73" s="1">
         <v>44157.632557870369</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3968,8 +5077,14 @@
       <c r="H74" s="1">
         <v>44157.883657407408</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3994,8 +5109,14 @@
       <c r="H75" s="1">
         <v>44157.484861111108</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4020,8 +5141,14 @@
       <c r="H76" s="1">
         <v>44157.319027777776</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4046,8 +5173,14 @@
       <c r="H77" s="1">
         <v>44156.986493055556</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4072,8 +5205,14 @@
       <c r="H78" s="1">
         <v>44157.066504629627</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4098,8 +5237,14 @@
       <c r="H79" s="1">
         <v>44157.466898148145</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4124,8 +5269,14 @@
       <c r="H80" s="1">
         <v>44157.299988425926</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4150,8 +5301,14 @@
       <c r="H81" s="1">
         <v>44157.423194444447</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4176,8 +5333,14 @@
       <c r="H82" s="1">
         <v>44157.704710648148</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4202,8 +5365,14 @@
       <c r="H83" s="1">
         <v>44157.552916666667</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4228,8 +5397,14 @@
       <c r="H84" s="1">
         <v>44157.756180555552</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4254,8 +5429,14 @@
       <c r="H85" s="1">
         <v>44157.453217592592</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4280,8 +5461,14 @@
       <c r="H86" s="1">
         <v>44157.169108796297</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4306,8 +5493,14 @@
       <c r="H87" s="1">
         <v>44157.890555555554</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4332,8 +5525,14 @@
       <c r="H88" s="1">
         <v>44157.360266203701</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4358,8 +5557,14 @@
       <c r="H89" s="1">
         <v>44157.026099537034</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4384,8 +5589,14 @@
       <c r="H90" s="1">
         <v>44157.296516203707</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4410,8 +5621,14 @@
       <c r="H91" s="1">
         <v>44157.429618055554</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4436,8 +5653,14 @@
       <c r="H92" s="1">
         <v>44157.488206018519</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4462,8 +5685,14 @@
       <c r="H93" s="1">
         <v>44157.858634259261</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4488,8 +5717,14 @@
       <c r="H94" s="1">
         <v>44157.341203703705</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4514,8 +5749,14 @@
       <c r="H95" s="1">
         <v>44157.438379629632</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4540,8 +5781,14 @@
       <c r="H96" s="1">
         <v>44157.721967592595</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4566,8 +5813,14 @@
       <c r="H97" s="1">
         <v>44157.313275462962</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4592,8 +5845,14 @@
       <c r="H98" s="1">
         <v>44157.625196759262</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4618,8 +5877,14 @@
       <c r="H99" s="1">
         <v>44157.002210648148</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4644,8 +5909,14 @@
       <c r="H100" s="1">
         <v>44157.179027777776</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4670,8 +5941,14 @@
       <c r="H101" s="1">
         <v>44157.013356481482</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4696,8 +5973,14 @@
       <c r="H102" s="1">
         <v>44157.495787037034</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4722,8 +6005,14 @@
       <c r="H103" s="1">
         <v>44157.041504629633</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4748,8 +6037,14 @@
       <c r="H104" s="1">
         <v>44156.973761574074</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4774,8 +6069,14 @@
       <c r="H105" s="1">
         <v>44157.741608796299</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4800,8 +6101,14 @@
       <c r="H106" s="1">
         <v>44157.245162037034</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4826,8 +6133,14 @@
       <c r="H107" s="1">
         <v>44157.171423611115</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4852,8 +6165,14 @@
       <c r="H108" s="1">
         <v>44157.230995370373</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4877,13 +6196,20 @@
       </c>
       <c r="H109" s="1">
         <v>44156.993622685186</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
